--- a/medicine/Psychotrope/Méchage/Méchage.xlsx
+++ b/medicine/Psychotrope/Méchage/Méchage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9chage</t>
+          <t>Méchage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le méchage est l'action de brûler une mèche de soufre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9chage</t>
+          <t>Méchage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition des mèches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mèches peuvent être faites de tissu trempé dans le soufre puis solidifiées, ou d'une pastille de soufre fleur agglomérée. La quantité de soufre brûlée est d'environ 5 grammes par fût pour un méchage normal, soit 2,5 g/hL du contenant à mécher.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9chage</t>
+          <t>Méchage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Réaction chimique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La combustion du soufre avec l'oxygène donne du dioxyde de soufre gazeux selon la réaction :
 S + O2 → SO2</t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9chage</t>
+          <t>Méchage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Intérêt œnologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une pratique qui permet de maintenir un milieu sain dans un fût vide, en attendant de le remplir à nouveau de vin. Le gaz permet d'aseptiser le milieu, sans pour autant désinfecter le bois en profondeur. L'opération est à renouveler tous les un à deux mois.
 Il permet d'empêcher le développement de levures et bactéries non souhaitables.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9chage</t>
+          <t>Méchage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Précaution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dioxyde de soufre gazeux est toxique et irritant pour les voies pulmonaires.
 </t>
